--- a/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-002.xlsx
+++ b/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-002.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\5. シナリオテスト（ユーザー）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B81C2B8-8A7B-452C-8396-7D751A1E787F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98CFBBF-E49A-4534-AFE7-F84BBFACE447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-1" sheetId="1" r:id="rId1"/>
-    <sheet name="1-2" sheetId="2" r:id="rId2"/>
-    <sheet name="1-3" sheetId="3" r:id="rId3"/>
-    <sheet name="1-4" sheetId="4" r:id="rId4"/>
-    <sheet name="1-5" sheetId="5" r:id="rId5"/>
-    <sheet name="1-6" sheetId="6" r:id="rId6"/>
-    <sheet name="1-7" sheetId="7" r:id="rId7"/>
+    <sheet name="DB操作前" sheetId="8" r:id="rId1"/>
+    <sheet name="DB操作後" sheetId="9" r:id="rId2"/>
+    <sheet name="1-1" sheetId="1" r:id="rId3"/>
+    <sheet name="1-2" sheetId="2" r:id="rId4"/>
+    <sheet name="1-3" sheetId="3" r:id="rId5"/>
+    <sheet name="1-4" sheetId="4" r:id="rId6"/>
+    <sheet name="1-5" sheetId="5" r:id="rId7"/>
+    <sheet name="1-6" sheetId="6" r:id="rId8"/>
+    <sheet name="1-7" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -98,6 +100,280 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
+      <xdr:colOff>229223</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>197048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBF8474-0189-4932-AF35-68836571E5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95866</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F129D859-A46E-45D1-B54F-78917CC6E7BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254624</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>101864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00530444-329F-4309-9D2A-A8EA2F94AC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="12141824" cy="5131064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>140318</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71B1F8F-2332-278B-05E2-1F8DD2290C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12027518" cy="3524431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>140318</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B92A72-4916-DFF6-877C-6554E6C90283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3657600"/>
+          <a:ext cx="12027518" cy="4324572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292726</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>216170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152151A1-D979-AB61-DCCA-AB192C960294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8229600"/>
+          <a:ext cx="12179926" cy="5245370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>102216</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>171776</xdr:rowOff>
@@ -136,7 +412,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -185,7 +461,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -234,7 +510,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -283,7 +559,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -332,7 +608,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -381,7 +657,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -692,6 +968,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59849B83-5D39-4049-B65D-134C65A3C931}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7548220-35C7-44F1-9DA6-A8E777885415}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -705,7 +1013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5755536-0878-445A-A3B3-EFDB8AC79705}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -719,7 +1027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8308C11C-AF0E-4264-AFEE-136546287790}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -733,7 +1041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B59740-561E-4898-B32F-4BD27D63EFBA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -747,7 +1055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42162FD5-2967-4956-B67D-2C6378AF800C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -761,7 +1069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58455855-0332-456E-9AA7-3735182F1B34}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -775,11 +1083,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB692B-7715-4036-9252-4ECA3816EA03}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
